--- a/data/product-pricing.xlsx
+++ b/data/product-pricing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nert/Documents/GitHub/gcal-mcp-server/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FFABB8-CB41-6546-BBF0-B3C6BACC58BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF89CB9-F18B-4840-82EB-06ED9862BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15600" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,48 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Product</t>
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>All Mirrors Add-ons</t>
-  </si>
-  <si>
-    <t>Floating candles set</t>
-  </si>
-  <si>
-    <t>Led candles set</t>
-  </si>
-  <si>
-    <t>COMBO of floating and LED candles</t>
-  </si>
-  <si>
-    <t>Half mirror:</t>
-  </si>
-  <si>
-    <t>1 faux floral arrangement</t>
-  </si>
-  <si>
-    <t>2 faux floral arrangement</t>
-  </si>
-  <si>
-    <t>1 floral bouquet</t>
-  </si>
-  <si>
-    <t>Full mirror:</t>
-  </si>
-  <si>
-    <t>set of 2 faux floral arrangement</t>
-  </si>
-  <si>
-    <t>faux floral arrangement (cascading)</t>
-  </si>
-  <si>
-    <t>full floral arch</t>
   </si>
   <si>
     <t>goldFullMirror</t>
@@ -458,7 +422,7 @@
   <dimension ref="A1:G997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="D40" sqref="A20:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -482,7 +446,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
         <v>120</v>
@@ -493,7 +457,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>120</v>
@@ -504,7 +468,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>100</v>
@@ -515,7 +479,7 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
         <v>100</v>
@@ -526,7 +490,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>80</v>
@@ -537,7 +501,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
         <v>100</v>
@@ -548,7 +512,7 @@
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4">
         <v>120</v>
@@ -559,7 +523,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4">
         <v>80</v>
@@ -570,7 +534,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4">
         <v>90</v>
@@ -581,7 +545,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>120</v>
@@ -592,7 +556,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>80</v>
@@ -602,7 +566,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4">
         <v>90</v>
@@ -612,7 +576,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4">
         <v>120</v>
@@ -622,7 +586,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4">
         <v>80</v>
@@ -632,7 +596,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4">
         <v>125</v>
@@ -642,7 +606,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>130</v>
@@ -652,7 +616,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>30</v>
@@ -662,7 +626,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>30</v>
@@ -676,42 +640,26 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4">
-        <v>40</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4">
-        <v>20</v>
-      </c>
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="4">
-        <v>50</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="G24" s="4"/>
     </row>
@@ -722,40 +670,26 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4">
-        <v>20</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4">
-        <v>30</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="4">
-        <v>50</v>
-      </c>
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="G29" s="4"/>
     </row>
@@ -765,50 +699,32 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A31" s="7"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="4">
-        <v>20</v>
-      </c>
+      <c r="A32" s="5"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="4">
-        <v>30</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="4">
-        <v>40</v>
-      </c>
+      <c r="A34" s="5"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="4">
-        <v>50</v>
-      </c>
+      <c r="A35" s="5"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="G35" s="4"/>
     </row>
